--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_16-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_16-33.xlsx
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>4:0</t>
+  </si>
+  <si>
+    <t>EMBROSITOL 40.1MG 30 TAB</t>
   </si>
   <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
@@ -1279,7 +1282,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>26</v>
+        <v>-220</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1305,7 +1308,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1325,17 +1328,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1351,17 +1354,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1377,17 +1380,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1403,13 +1406,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1429,17 +1432,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1455,13 +1458,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1481,13 +1484,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1507,17 +1510,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1533,17 +1536,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1559,17 +1562,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1577,7 +1580,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1585,17 +1588,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1611,17 +1614,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1637,17 +1640,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1663,13 +1666,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1689,13 +1692,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1715,17 +1718,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1733,7 +1736,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1741,17 +1744,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1767,13 +1770,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1793,17 +1796,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1819,13 +1822,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1837,7 +1840,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1845,17 +1848,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1871,17 +1874,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>20.399999999999999</v>
+        <v>52</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1889,7 +1892,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1897,17 +1900,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>23</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1923,17 +1926,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1941,7 +1944,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1949,13 +1952,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1975,17 +1978,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2001,17 +2004,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2027,17 +2030,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2053,17 +2056,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2079,13 +2082,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2105,13 +2108,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2137,7 +2140,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2157,17 +2160,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2183,17 +2186,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2201,7 +2204,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2209,13 +2212,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2235,17 +2238,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2267,11 +2270,11 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2287,17 +2290,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>11.880000000000001</v>
+        <v>40</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2305,7 +2308,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2313,17 +2316,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>2</v>
+        <v>11.880000000000001</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2331,7 +2334,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2339,13 +2342,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2371,7 +2374,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>50</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2391,13 +2394,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2409,7 +2412,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2417,13 +2420,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2443,13 +2446,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2469,13 +2472,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2487,7 +2490,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2495,13 +2498,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2521,13 +2524,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2547,51 +2550,77 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="K69" s="10">
-        <v>2918.5599999999999</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="11">
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
+        <v>93</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
         <v>94</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c t="s" r="F70" s="12">
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>45</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="26.25" customHeight="1">
+      <c r="K70" s="10">
+        <v>2698.5599999999999</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="11">
         <v>95</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c t="s" r="I70" s="14">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c t="s" r="F71" s="12">
         <v>96</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+      <c t="s" r="I71" s="14">
+        <v>97</v>
+      </c>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="209">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2794,10 +2823,13 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:N71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
